--- a/Microsoft Excel/Tanvir/Day 02.xlsx
+++ b/Microsoft Excel/Tanvir/Day 02.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taroto/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB9A02-3A9B-834F-B6AB-06E8CE991DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDBC09-5F80-014F-A3C1-1B4413FDFBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{9F8291B1-12C9-6E43-84E1-4C74E854AA37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="18 Jan 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088B1D09-73C6-BA48-A00A-52E28C9AF56E}">
   <dimension ref="B6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Microsoft Excel/Tanvir/Day 02.xlsx
+++ b/Microsoft Excel/Tanvir/Day 02.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taroto/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDBC09-5F80-014F-A3C1-1B4413FDFBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BA989-C801-BF4C-B482-4F2402D41D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{9F8291B1-12C9-6E43-84E1-4C74E854AA37}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{9F8291B1-12C9-6E43-84E1-4C74E854AA37}"/>
   </bookViews>
   <sheets>
     <sheet name="18 Jan 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel Formatting" sheetId="2" r:id="rId2"/>
+    <sheet name="Border" sheetId="3" r:id="rId3"/>
+    <sheet name="Number Formatting in Excel" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t xml:space="preserve">AND </t>
   </si>
@@ -215,13 +218,170 @@
   </si>
   <si>
     <t>XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic </t>
+  </si>
+  <si>
+    <t>underline</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Tanvir</t>
+  </si>
+  <si>
+    <t>Shimul</t>
+  </si>
+  <si>
+    <t>Saikat</t>
+  </si>
+  <si>
+    <t>Alock</t>
+  </si>
+  <si>
+    <t>Bandhan</t>
+  </si>
+  <si>
+    <t>Gazipur</t>
+  </si>
+  <si>
+    <t>Murapara</t>
+  </si>
+  <si>
+    <t>Cummilla</t>
+  </si>
+  <si>
+    <t>Rupganj</t>
+  </si>
+  <si>
+    <t>Araihazar</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanvir </t>
+  </si>
+  <si>
+    <t>Tonoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modhu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names </t>
+  </si>
+  <si>
+    <t>Roll Numb</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available </t>
+  </si>
+  <si>
+    <t>Macbook Air M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom PC </t>
+  </si>
+  <si>
+    <t>Iphone 15 pro max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xp Pen Graphics Tab </t>
+  </si>
+  <si>
+    <t>Transcend ESD410C</t>
+  </si>
+  <si>
+    <t>Huawei Watch Fit 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia </t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>pen-tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Watch </t>
+  </si>
+  <si>
+    <t>external SSD</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>exchange Rate BDT - AUD</t>
+  </si>
+  <si>
+    <t>exchange Rate BDT - USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="[$BDT]\ #,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$BDT]\ #,##0"/>
+    <numFmt numFmtId="174" formatCode="[$AUD]\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="[$AUD]\ #,##0.000"/>
+    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0.000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,16 +410,165 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,16 +576,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -373,6 +730,407 @@
           <a:r>
             <a:rPr lang="en-US" sz="4000" kern="1200"/>
             <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6019</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE49ACF-3DAB-F9EE-CA5D-8650455BACC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2720569" cy="409289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Format Painter </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>! WOW </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13755</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>197148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EFD23C-5260-F213-0CC2-FC0F0FAB9E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13755" y="0"/>
+          <a:ext cx="2462057" cy="398881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FORMATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> BORDERS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499748</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371371</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5CA6E7-19FE-F86F-4227-73FE05BDB3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2975560" y="403466"/>
+          <a:ext cx="2347436" cy="806931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To make everything Upper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>case </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>use : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Command + F3 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hello -&gt; HELLO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6518913D-1C20-EA56-D9A9-DE0A5141C5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="25400"/>
+          <a:ext cx="2413000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NUMBER FORMATTING </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -681,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088B1D09-73C6-BA48-A00A-52E28C9AF56E}">
   <dimension ref="B6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -940,6 +1698,417 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC3F532-F191-1F4C-A56C-4FBA4792D0F9}">
+  <dimension ref="A3:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="211" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="I8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0715D1A-2C67-EE45-A830-BDAABE4D35FD}">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D35306-AF07-8B46-8E22-108609A3DC6F}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="24">
+        <v>75.64</v>
+      </c>
+      <c r="G2" s="34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15">
+        <v>80000</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="25">
+        <f>(C5/$F$2)</f>
+        <v>1057.6414595452143</v>
+      </c>
+      <c r="G5" s="31">
+        <f>(C5/$G$2)</f>
+        <v>650.40650406504062</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" ref="F6:F10" si="0">(C6/$F$2)</f>
+        <v>661.02591221575881</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G10" si="1">(C6/$G$2)</f>
+        <v>406.5040650406504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="15">
+        <v>85000</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>1123.74405076679</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="1"/>
+        <v>691.05691056910564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>39.661554732945532</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="1"/>
+        <v>24.390243902439025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="15">
+        <v>7000</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>92.543627710206238</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="1"/>
+        <v>56.91056910569106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>79.323109465891065</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="1"/>
+        <v>48.780487804878049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
+        <f>SUM(C5:C10)</f>
+        <v>231000</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="F11" s="27">
+        <f>SUM(F5:F10)</f>
+        <v>3053.9397144368058</v>
+      </c>
+      <c r="G11" s="30">
+        <f>SUM(G5:G10)</f>
+        <v>1878.0487804878051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Microsoft Excel/Tanvir/Day 02.xlsx
+++ b/Microsoft Excel/Tanvir/Day 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taroto/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BA989-C801-BF4C-B482-4F2402D41D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100E2BB-26CB-B843-9D78-B9D13727B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{9F8291B1-12C9-6E43-84E1-4C74E854AA37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{9F8291B1-12C9-6E43-84E1-4C74E854AA37}"/>
   </bookViews>
   <sheets>
     <sheet name="18 Jan 2025" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Border" sheetId="3" r:id="rId3"/>
     <sheet name="Number Formatting in Excel" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Number Formatting in Excel'!$A$4:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -374,12 +376,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$BDT]\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="[$BDT]\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="[$AUD]\ #,##0.00"/>
-    <numFmt numFmtId="178" formatCode="[$AUD]\ #,##0.000"/>
-    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$BDT]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$BDT]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$AUD]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$AUD]\ #,##0.000"/>
+    <numFmt numFmtId="169" formatCode="[$USD]\ #,##0.000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -596,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,9 +614,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -623,17 +625,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D35306-AF07-8B46-8E22-108609A3DC6F}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1910,7 +1911,7 @@
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F1" s="23" t="s">
         <v>101</v>
       </c>
@@ -1918,15 +1919,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="24">
         <v>75.64</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="25">
         <v>1</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>81</v>
       </c>
@@ -1954,140 +1955,139 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C5" s="15">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="25">
         <f>(C5/$F$2)</f>
-        <v>1057.6414595452143</v>
+        <v>39.661554732945532</v>
       </c>
       <c r="G5" s="31">
         <f>(C5/$G$2)</f>
-        <v>650.40650406504062</v>
-      </c>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24.390243902439025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" s="15">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" ref="F6:F10" si="0">(C6/$F$2)</f>
-        <v>661.02591221575881</v>
+        <v>79.323109465891065</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G10" si="1">(C6/$G$2)</f>
-        <v>406.5040650406504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48.780487804878049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" s="15">
-        <v>85000</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="0"/>
-        <v>1123.74405076679</v>
+        <v>92.543627710206238</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="1"/>
-        <v>691.05691056910564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56.91056910569106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="0"/>
-        <v>39.661554732945532</v>
+        <v>661.02591221575881</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="1"/>
-        <v>24.390243902439025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>406.5040650406504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="15">
-        <v>7000</v>
+        <v>80000</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="0"/>
-        <v>92.543627710206238</v>
+        <v>1057.6414595452143</v>
       </c>
       <c r="G9" s="31">
         <f t="shared" si="1"/>
-        <v>56.91056910569106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650.40650406504062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="15">
-        <v>6000</v>
+        <v>85000</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="0"/>
-        <v>79.323109465891065</v>
+        <v>1123.74405076679</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" si="1"/>
-        <v>48.780487804878049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>691.05691056910564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>90</v>
       </c>
@@ -2103,10 +2103,14 @@
       </c>
       <c r="G11" s="30">
         <f>SUM(G5:G10)</f>
-        <v>1878.0487804878051</v>
+        <v>1878.0487804878048</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D11" xr:uid="{C8D35306-AF07-8B46-8E22-108609A3DC6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D11">
+    <sortCondition ref="C4:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
